--- a/resources/TME_GOTOWE_29_06_2023.xlsx
+++ b/resources/TME_GOTOWE_29_06_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Zabtrans\nameplate_zabtrans_generator\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A182F56-C316-4340-8B85-601F18D3B14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FC2D4A-CB8A-422E-9FA4-F2A070F6F3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{EB5254FC-1B2E-4017-A12A-5C4409C88451}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="130">
   <si>
     <t>?</t>
   </si>
@@ -432,6 +432,12 @@
   </si>
   <si>
     <t>TAK</t>
+  </si>
+  <si>
+    <t>USŁUG</t>
+  </si>
+  <si>
+    <t>KOL</t>
   </si>
 </sst>
 </file>
@@ -10618,8 +10624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C54BE9F-574D-4F41-917B-6E97B7828100}">
   <dimension ref="A2:AK12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10762,6 +10768,9 @@
       <c r="D3" t="s">
         <v>125</v>
       </c>
+      <c r="G3" t="s">
+        <v>128</v>
+      </c>
       <c r="H3">
         <v>8</v>
       </c>
@@ -10857,7 +10866,9 @@
       </c>
       <c r="E4"/>
       <c r="F4"/>
-      <c r="G4"/>
+      <c r="G4" t="s">
+        <v>128</v>
+      </c>
       <c r="H4">
         <v>8</v>
       </c>
@@ -10960,7 +10971,9 @@
       </c>
       <c r="E5"/>
       <c r="F5"/>
-      <c r="G5"/>
+      <c r="G5" t="s">
+        <v>128</v>
+      </c>
       <c r="H5">
         <v>5</v>
       </c>
@@ -11364,7 +11377,9 @@
       </c>
       <c r="E9"/>
       <c r="F9"/>
-      <c r="G9"/>
+      <c r="G9" t="s">
+        <v>129</v>
+      </c>
       <c r="H9">
         <v>1</v>
       </c>
@@ -11469,7 +11484,9 @@
       </c>
       <c r="E10"/>
       <c r="F10"/>
-      <c r="G10"/>
+      <c r="G10" t="s">
+        <v>129</v>
+      </c>
       <c r="H10">
         <v>2</v>
       </c>
@@ -11574,7 +11591,9 @@
       </c>
       <c r="E11"/>
       <c r="F11"/>
-      <c r="G11"/>
+      <c r="G11" t="s">
+        <v>129</v>
+      </c>
       <c r="H11">
         <v>3</v>
       </c>
@@ -11683,7 +11702,9 @@
       </c>
       <c r="E12"/>
       <c r="F12"/>
-      <c r="G12"/>
+      <c r="G12" t="s">
+        <v>129</v>
+      </c>
       <c r="H12">
         <v>3</v>
       </c>
